--- a/data/orangehrm.xlsx
+++ b/data/orangehrm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\May2023Team6-Web-Automation-Framework\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8939FCBE-B4A6-48B4-961A-54EB31C81616}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{132C2E84-D05B-4180-B0D0-9C8EDBC91C9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="322">
   <si>
     <t>Kris</t>
   </si>
@@ -84,51 +84,6 @@
     <t>E02015</t>
   </si>
   <si>
-    <t>Cammy</t>
-  </si>
-  <si>
-    <t>Albares</t>
-  </si>
-  <si>
-    <t>E02016</t>
-  </si>
-  <si>
-    <t>Mattie</t>
-  </si>
-  <si>
-    <t>Poquette</t>
-  </si>
-  <si>
-    <t>E02017</t>
-  </si>
-  <si>
-    <t>Meaghan</t>
-  </si>
-  <si>
-    <t>Garufi</t>
-  </si>
-  <si>
-    <t>E02018</t>
-  </si>
-  <si>
-    <t>Gladys</t>
-  </si>
-  <si>
-    <t>Rim</t>
-  </si>
-  <si>
-    <t>E02019</t>
-  </si>
-  <si>
-    <t>Yuki</t>
-  </si>
-  <si>
-    <t>Whobrey</t>
-  </si>
-  <si>
-    <t>E02020</t>
-  </si>
-  <si>
     <t>Johnson</t>
   </si>
   <si>
@@ -147,9 +102,6 @@
     <t>Brown</t>
   </si>
   <si>
-    <t>Paris</t>
-  </si>
-  <si>
     <t>USA</t>
   </si>
   <si>
@@ -247,57 +199,6 @@
   </si>
   <si>
     <t>Sydney</t>
-  </si>
-  <si>
-    <t>555-135-7924</t>
-  </si>
-  <si>
-    <t>example5@example.com</t>
-  </si>
-  <si>
-    <t>555-468-1357</t>
-  </si>
-  <si>
-    <t>example6@example.com</t>
-  </si>
-  <si>
-    <t>Berlin</t>
-  </si>
-  <si>
-    <t>555-753-1592</t>
-  </si>
-  <si>
-    <t>example7@example.com</t>
-  </si>
-  <si>
-    <t>Beijing</t>
-  </si>
-  <si>
-    <t>555-159-7532</t>
-  </si>
-  <si>
-    <t>example8@example.com</t>
-  </si>
-  <si>
-    <t>Toronto</t>
-  </si>
-  <si>
-    <t>555-357-2468</t>
-  </si>
-  <si>
-    <t>example9@example.com</t>
-  </si>
-  <si>
-    <t>Dubai</t>
-  </si>
-  <si>
-    <t>555-624-1359</t>
-  </si>
-  <si>
-    <t>example10@example.com</t>
-  </si>
-  <si>
-    <t>Mumbai</t>
   </si>
   <si>
     <t>Status</t>
@@ -1364,6 +1265,9 @@
   </si>
   <si>
     <t>Selecting the "Attendance Summary" option should promptly present the attendance summary page.</t>
+  </si>
+  <si>
+    <t>a</t>
   </si>
 </sst>
 </file>
@@ -2443,8 +2347,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D499888-7285-4ACC-A925-48BBEE7DC184}">
   <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView zoomScale="103" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView topLeftCell="A29" zoomScale="103" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2461,31 +2365,31 @@
   <sheetData>
     <row r="1" spans="1:9" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -2508,13 +2412,13 @@
         <v>787218563</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -2537,11 +2441,11 @@
         <v>972384483</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="5" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -2564,13 +2468,13 @@
         <v>764284723</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -2593,13 +2497,13 @@
         <v>374390312</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -2622,547 +2526,14 @@
         <v>159282484</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="H6" s="5"/>
       <c r="I6" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="5">
-        <v>672335539</v>
-      </c>
-      <c r="E7" s="5">
-        <v>569862849</v>
-      </c>
-      <c r="F7" s="5">
-        <v>202306318</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="5">
-        <v>163273201</v>
-      </c>
-      <c r="E8" s="5">
-        <v>116645940</v>
-      </c>
-      <c r="F8" s="5">
-        <v>230168126</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="5">
-        <v>841450879</v>
-      </c>
-      <c r="E9" s="5">
-        <v>737071135</v>
-      </c>
-      <c r="F9" s="5">
-        <v>181396638</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="5">
-        <v>590681361</v>
-      </c>
-      <c r="E10" s="5">
-        <v>588415441</v>
-      </c>
-      <c r="F10" s="5">
-        <v>793675048</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="5">
-        <v>159257269</v>
-      </c>
-      <c r="E11" s="5">
-        <v>819089560</v>
-      </c>
-      <c r="F11" s="5">
-        <v>848821722</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" s="5"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" s="5"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" s="5"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" s="5"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" s="5"/>
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A43" s="5"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A44" s="5"/>
-      <c r="B44" s="5"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A45" s="5"/>
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
-      <c r="I45" s="5"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A46" s="5"/>
-      <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
-      <c r="I46" s="5"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A47" s="5"/>
-      <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="5"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
@@ -3177,10 +2548,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D7848CD-7D9E-454E-95D1-13BD15043FE4}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3190,22 +2561,22 @@
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -3216,16 +2587,16 @@
         <v>9876543210</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="D2" s="5">
         <v>8889990000</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -3236,16 +2607,16 @@
         <v>6543210987</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="D3" s="5">
         <v>7778889999</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -3256,16 +2627,16 @@
         <v>1234567890</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="D4" s="5">
         <v>6667778888</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -3276,136 +2647,21 @@
         <v>5432167890</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="D5" s="5">
         <v>5556667777</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
-        <v>56789012</v>
-      </c>
-      <c r="B6" s="5">
-        <v>9876543210</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D6" s="5">
-        <v>4445556666</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="5">
-        <v>67890123</v>
-      </c>
-      <c r="B7" s="5">
-        <v>6543210987</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D7" s="5">
-        <v>3334445555</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="5">
-        <v>78901234</v>
-      </c>
-      <c r="B8" s="5">
-        <v>1234567890</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D8" s="5">
-        <v>2223334444</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="5">
-        <v>89012345</v>
-      </c>
-      <c r="B9" s="5">
-        <v>5432167890</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D9" s="5">
-        <v>1112223333</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="5">
-        <v>90123456</v>
-      </c>
-      <c r="B10" s="5">
-        <v>9876543210</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D10" s="5">
-        <v>1112222</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="5">
-        <v>1234567</v>
-      </c>
-      <c r="B11" s="5">
-        <v>6543210987</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D11" s="5">
-        <v>9990001111</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>86</v>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F15" s="1" t="s">
+        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -3419,7 +2675,7 @@
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3429,27 +2685,27 @@
   <sheetData>
     <row r="1" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>87</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>89</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>91</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>90</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -3476,104 +2732,104 @@
   <sheetData>
     <row r="1" spans="1:5" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>111</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>95</v>
+        <v>62</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>101</v>
+        <v>68</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>112</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>113</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>99</v>
+        <v>66</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>114</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>115</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>116</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -3642,7 +2898,7 @@
   <sheetData>
     <row r="1" spans="1:26" s="11" customFormat="1" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="34" t="s">
-        <v>117</v>
+        <v>84</v>
       </c>
       <c r="B1" s="35"/>
       <c r="C1" s="35"/>
@@ -3672,31 +2928,31 @@
     </row>
     <row r="2" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
-        <v>118</v>
+        <v>85</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>119</v>
+        <v>86</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>120</v>
+        <v>87</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>121</v>
+        <v>88</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>122</v>
+        <v>89</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>123</v>
+        <v>90</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>124</v>
+        <v>91</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="J2" s="16"/>
       <c r="K2" s="16"/>
@@ -3717,31 +2973,31 @@
     </row>
     <row r="3" spans="1:26" ht="249" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
-        <v>126</v>
+        <v>93</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>127</v>
+        <v>94</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>128</v>
+        <v>95</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>129</v>
+        <v>96</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>130</v>
+        <v>97</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>131</v>
+        <v>98</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>132</v>
+        <v>99</v>
       </c>
       <c r="H3" s="21" t="s">
-        <v>133</v>
+        <v>100</v>
       </c>
       <c r="I3" s="19" t="s">
-        <v>134</v>
+        <v>101</v>
       </c>
       <c r="J3" s="16"/>
       <c r="K3" s="16"/>
@@ -3762,31 +3018,31 @@
     </row>
     <row r="4" spans="1:26" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A4" s="22" t="s">
-        <v>135</v>
+        <v>102</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>136</v>
+        <v>103</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>137</v>
+        <v>104</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>138</v>
+        <v>105</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>139</v>
+        <v>106</v>
       </c>
       <c r="F4" s="23" t="s">
-        <v>140</v>
+        <v>107</v>
       </c>
       <c r="G4" s="23" t="s">
-        <v>141</v>
+        <v>108</v>
       </c>
       <c r="H4" s="24" t="s">
-        <v>142</v>
+        <v>109</v>
       </c>
       <c r="I4" s="19" t="s">
-        <v>134</v>
+        <v>101</v>
       </c>
       <c r="J4" s="16"/>
       <c r="K4" s="16"/>
@@ -3807,31 +3063,31 @@
     </row>
     <row r="5" spans="1:26" ht="331.2" x14ac:dyDescent="0.3">
       <c r="A5" s="22" t="s">
-        <v>143</v>
+        <v>110</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>144</v>
+        <v>111</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>145</v>
+        <v>112</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>138</v>
+        <v>105</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>146</v>
+        <v>113</v>
       </c>
       <c r="F5" s="23" t="s">
-        <v>147</v>
+        <v>114</v>
       </c>
       <c r="G5" s="23" t="s">
-        <v>148</v>
+        <v>115</v>
       </c>
       <c r="H5" s="24" t="s">
-        <v>133</v>
+        <v>100</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>134</v>
+        <v>101</v>
       </c>
       <c r="J5" s="16"/>
       <c r="K5" s="16"/>
@@ -3852,31 +3108,31 @@
     </row>
     <row r="6" spans="1:26" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A6" s="22" t="s">
-        <v>149</v>
+        <v>116</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>150</v>
+        <v>117</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>151</v>
+        <v>118</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>138</v>
+        <v>105</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>152</v>
+        <v>119</v>
       </c>
       <c r="F6" s="23" t="s">
-        <v>153</v>
+        <v>120</v>
       </c>
       <c r="G6" s="23" t="s">
-        <v>154</v>
+        <v>121</v>
       </c>
       <c r="H6" s="24" t="s">
-        <v>133</v>
+        <v>100</v>
       </c>
       <c r="I6" s="19" t="s">
-        <v>134</v>
+        <v>101</v>
       </c>
       <c r="J6" s="16"/>
       <c r="K6" s="16"/>
@@ -3897,31 +3153,31 @@
     </row>
     <row r="7" spans="1:26" ht="216" x14ac:dyDescent="0.3">
       <c r="A7" s="22" t="s">
-        <v>155</v>
+        <v>122</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>156</v>
+        <v>123</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>157</v>
+        <v>124</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>138</v>
+        <v>105</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>158</v>
+        <v>125</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>159</v>
+        <v>126</v>
       </c>
       <c r="G7" s="23" t="s">
-        <v>160</v>
+        <v>127</v>
       </c>
       <c r="H7" s="24" t="s">
-        <v>142</v>
+        <v>109</v>
       </c>
       <c r="I7" s="19" t="s">
-        <v>134</v>
+        <v>101</v>
       </c>
       <c r="J7" s="16"/>
       <c r="K7" s="16"/>
@@ -3942,31 +3198,31 @@
     </row>
     <row r="8" spans="1:26" ht="288" x14ac:dyDescent="0.3">
       <c r="A8" s="22" t="s">
-        <v>161</v>
+        <v>128</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>162</v>
+        <v>129</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>163</v>
+        <v>130</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>138</v>
+        <v>105</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>164</v>
+        <v>131</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>165</v>
+        <v>132</v>
       </c>
       <c r="G8" s="23" t="s">
-        <v>166</v>
+        <v>133</v>
       </c>
       <c r="H8" s="24" t="s">
-        <v>133</v>
+        <v>100</v>
       </c>
       <c r="I8" s="19" t="s">
-        <v>134</v>
+        <v>101</v>
       </c>
       <c r="J8" s="16"/>
       <c r="K8" s="16"/>
@@ -3987,31 +3243,31 @@
     </row>
     <row r="9" spans="1:26" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A9" s="22" t="s">
-        <v>167</v>
+        <v>134</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>168</v>
+        <v>135</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>169</v>
+        <v>136</v>
       </c>
       <c r="D9" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="F9" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="E9" s="23" t="s">
-        <v>170</v>
-      </c>
-      <c r="F9" s="23" t="s">
-        <v>171</v>
-      </c>
       <c r="G9" s="23" t="s">
-        <v>172</v>
+        <v>139</v>
       </c>
       <c r="H9" s="24" t="s">
-        <v>133</v>
+        <v>100</v>
       </c>
       <c r="I9" s="19" t="s">
-        <v>134</v>
+        <v>101</v>
       </c>
       <c r="J9" s="16"/>
       <c r="K9" s="16"/>
@@ -4032,28 +3288,28 @@
     </row>
     <row r="10" spans="1:26" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A10" s="26" t="s">
-        <v>173</v>
+        <v>140</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>174</v>
+        <v>141</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>175</v>
+        <v>142</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>138</v>
+        <v>105</v>
       </c>
       <c r="E10" s="28" t="s">
-        <v>176</v>
+        <v>143</v>
       </c>
       <c r="F10" s="28" t="s">
-        <v>177</v>
+        <v>144</v>
       </c>
       <c r="G10" s="27" t="s">
-        <v>178</v>
+        <v>145</v>
       </c>
       <c r="H10" s="30" t="s">
-        <v>179</v>
+        <v>146</v>
       </c>
       <c r="I10" s="19"/>
       <c r="J10" s="16"/>
@@ -4075,31 +3331,31 @@
     </row>
     <row r="11" spans="1:26" ht="216" x14ac:dyDescent="0.3">
       <c r="A11" s="22" t="s">
-        <v>180</v>
+        <v>147</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>181</v>
+        <v>148</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>182</v>
+        <v>149</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>138</v>
+        <v>105</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>183</v>
+        <v>150</v>
       </c>
       <c r="F11" s="23" t="s">
-        <v>184</v>
+        <v>151</v>
       </c>
       <c r="G11" s="23" t="s">
-        <v>185</v>
+        <v>152</v>
       </c>
       <c r="H11" s="24" t="s">
-        <v>133</v>
+        <v>100</v>
       </c>
       <c r="I11" s="19" t="s">
-        <v>134</v>
+        <v>101</v>
       </c>
       <c r="J11" s="16"/>
       <c r="K11" s="16"/>
@@ -4120,31 +3376,31 @@
     </row>
     <row r="12" spans="1:26" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A12" s="22" t="s">
-        <v>186</v>
+        <v>153</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>187</v>
+        <v>154</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>188</v>
+        <v>155</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>138</v>
+        <v>105</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>189</v>
+        <v>156</v>
       </c>
       <c r="F12" s="23" t="s">
-        <v>190</v>
+        <v>157</v>
       </c>
       <c r="G12" s="23" t="s">
-        <v>191</v>
+        <v>158</v>
       </c>
       <c r="H12" s="24" t="s">
-        <v>142</v>
+        <v>109</v>
       </c>
       <c r="I12" s="19" t="s">
-        <v>134</v>
+        <v>101</v>
       </c>
       <c r="J12" s="16"/>
       <c r="K12" s="16"/>
@@ -4165,31 +3421,31 @@
     </row>
     <row r="13" spans="1:26" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A13" s="22" t="s">
-        <v>192</v>
+        <v>159</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>193</v>
+        <v>160</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>194</v>
+        <v>161</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>138</v>
+        <v>105</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>195</v>
+        <v>162</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>196</v>
+        <v>163</v>
       </c>
       <c r="G13" s="23" t="s">
-        <v>197</v>
+        <v>164</v>
       </c>
       <c r="H13" s="24" t="s">
-        <v>142</v>
+        <v>109</v>
       </c>
       <c r="I13" s="19" t="s">
-        <v>134</v>
+        <v>101</v>
       </c>
       <c r="J13" s="16"/>
       <c r="K13" s="16"/>
@@ -4210,31 +3466,31 @@
     </row>
     <row r="14" spans="1:26" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A14" s="22" t="s">
-        <v>198</v>
+        <v>165</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>200</v>
+        <v>167</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>138</v>
+        <v>105</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>201</v>
+        <v>168</v>
       </c>
       <c r="F14" s="23" t="s">
-        <v>202</v>
+        <v>169</v>
       </c>
       <c r="G14" s="23" t="s">
-        <v>203</v>
+        <v>170</v>
       </c>
       <c r="H14" s="24" t="s">
-        <v>142</v>
+        <v>109</v>
       </c>
       <c r="I14" s="19" t="s">
-        <v>134</v>
+        <v>101</v>
       </c>
       <c r="J14" s="16"/>
       <c r="K14" s="16"/>
@@ -4255,31 +3511,31 @@
     </row>
     <row r="15" spans="1:26" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A15" s="22" t="s">
-        <v>204</v>
+        <v>171</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>205</v>
+        <v>172</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>206</v>
+        <v>173</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>138</v>
+        <v>105</v>
       </c>
       <c r="E15" s="23" t="s">
-        <v>207</v>
+        <v>174</v>
       </c>
       <c r="F15" s="23" t="s">
-        <v>208</v>
+        <v>175</v>
       </c>
       <c r="G15" s="23" t="s">
-        <v>209</v>
+        <v>176</v>
       </c>
       <c r="H15" s="24" t="s">
-        <v>133</v>
+        <v>100</v>
       </c>
       <c r="I15" s="19" t="s">
-        <v>134</v>
+        <v>101</v>
       </c>
       <c r="J15" s="16"/>
       <c r="K15" s="16"/>
@@ -4300,31 +3556,31 @@
     </row>
     <row r="16" spans="1:26" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A16" s="22" t="s">
-        <v>210</v>
+        <v>177</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>211</v>
+        <v>178</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>212</v>
+        <v>179</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>138</v>
+        <v>105</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>213</v>
+        <v>180</v>
       </c>
       <c r="F16" s="23" t="s">
-        <v>214</v>
+        <v>181</v>
       </c>
       <c r="G16" s="23" t="s">
-        <v>215</v>
+        <v>182</v>
       </c>
       <c r="H16" s="24" t="s">
-        <v>133</v>
+        <v>100</v>
       </c>
       <c r="I16" s="19" t="s">
-        <v>134</v>
+        <v>101</v>
       </c>
       <c r="J16" s="16"/>
       <c r="K16" s="16"/>
@@ -4345,31 +3601,31 @@
     </row>
     <row r="17" spans="1:25" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A17" s="22" t="s">
-        <v>216</v>
+        <v>183</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>217</v>
+        <v>184</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>218</v>
+        <v>185</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>138</v>
+        <v>105</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="F17" s="23" t="s">
-        <v>220</v>
+        <v>187</v>
       </c>
       <c r="G17" s="23" t="s">
-        <v>221</v>
+        <v>188</v>
       </c>
       <c r="H17" s="24" t="s">
-        <v>133</v>
+        <v>100</v>
       </c>
       <c r="I17" s="19" t="s">
-        <v>134</v>
+        <v>101</v>
       </c>
       <c r="J17" s="16"/>
       <c r="K17" s="16"/>
@@ -4390,31 +3646,31 @@
     </row>
     <row r="18" spans="1:25" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A18" s="22" t="s">
-        <v>222</v>
+        <v>189</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>223</v>
+        <v>190</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>224</v>
+        <v>191</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>138</v>
+        <v>105</v>
       </c>
       <c r="E18" s="23" t="s">
-        <v>225</v>
+        <v>192</v>
       </c>
       <c r="F18" s="23" t="s">
-        <v>226</v>
+        <v>193</v>
       </c>
       <c r="G18" s="23" t="s">
-        <v>227</v>
+        <v>194</v>
       </c>
       <c r="H18" s="24" t="s">
-        <v>133</v>
+        <v>100</v>
       </c>
       <c r="I18" s="19" t="s">
-        <v>134</v>
+        <v>101</v>
       </c>
       <c r="J18" s="16"/>
       <c r="K18" s="16"/>
@@ -4435,31 +3691,31 @@
     </row>
     <row r="19" spans="1:25" ht="144" x14ac:dyDescent="0.3">
       <c r="A19" s="22" t="s">
-        <v>228</v>
+        <v>195</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>229</v>
+        <v>196</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>138</v>
+        <v>105</v>
       </c>
       <c r="E19" s="23" t="s">
-        <v>231</v>
+        <v>198</v>
       </c>
       <c r="F19" s="23" t="s">
-        <v>232</v>
+        <v>199</v>
       </c>
       <c r="G19" s="23" t="s">
-        <v>233</v>
+        <v>200</v>
       </c>
       <c r="H19" s="24" t="s">
-        <v>133</v>
+        <v>100</v>
       </c>
       <c r="I19" s="19" t="s">
-        <v>134</v>
+        <v>101</v>
       </c>
       <c r="J19" s="16"/>
       <c r="K19" s="16"/>
@@ -4480,28 +3736,28 @@
     </row>
     <row r="20" spans="1:25" ht="331.2" x14ac:dyDescent="0.3">
       <c r="A20" s="22" t="s">
-        <v>234</v>
+        <v>201</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>235</v>
+        <v>202</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>236</v>
+        <v>203</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>138</v>
+        <v>105</v>
       </c>
       <c r="E20" s="23" t="s">
-        <v>237</v>
+        <v>204</v>
       </c>
       <c r="F20" s="23" t="s">
-        <v>238</v>
+        <v>205</v>
       </c>
       <c r="G20" s="23" t="s">
-        <v>239</v>
+        <v>206</v>
       </c>
       <c r="H20" s="24" t="s">
-        <v>133</v>
+        <v>100</v>
       </c>
       <c r="I20" s="25"/>
       <c r="J20" s="16"/>
@@ -4523,28 +3779,28 @@
     </row>
     <row r="21" spans="1:25" ht="179.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="26" t="s">
-        <v>240</v>
+        <v>207</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>241</v>
+        <v>208</v>
       </c>
       <c r="C21" s="28" t="s">
-        <v>242</v>
+        <v>209</v>
       </c>
       <c r="D21" s="29" t="s">
-        <v>138</v>
+        <v>105</v>
       </c>
       <c r="E21" s="27" t="s">
-        <v>243</v>
+        <v>210</v>
       </c>
       <c r="F21" s="28" t="s">
-        <v>244</v>
+        <v>211</v>
       </c>
       <c r="G21" s="27" t="s">
-        <v>245</v>
+        <v>212</v>
       </c>
       <c r="H21" s="31" t="s">
-        <v>133</v>
+        <v>100</v>
       </c>
       <c r="I21" s="32"/>
       <c r="J21" s="16"/>
@@ -4566,26 +3822,26 @@
     </row>
     <row r="22" spans="1:25" ht="97.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="26" t="s">
-        <v>246</v>
+        <v>213</v>
       </c>
       <c r="B22" s="27" t="s">
-        <v>247</v>
+        <v>214</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>248</v>
+        <v>215</v>
       </c>
       <c r="D22" s="29"/>
       <c r="E22" s="28" t="s">
-        <v>249</v>
+        <v>216</v>
       </c>
       <c r="F22" s="28" t="s">
-        <v>250</v>
+        <v>217</v>
       </c>
       <c r="G22" s="27" t="s">
-        <v>251</v>
+        <v>218</v>
       </c>
       <c r="H22" s="31" t="s">
-        <v>133</v>
+        <v>100</v>
       </c>
       <c r="I22" s="32"/>
       <c r="J22" s="16"/>
@@ -4607,28 +3863,28 @@
     </row>
     <row r="23" spans="1:25" ht="165.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="26" t="s">
-        <v>252</v>
+        <v>219</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>253</v>
+        <v>220</v>
       </c>
       <c r="C23" s="28" t="s">
-        <v>254</v>
+        <v>221</v>
       </c>
       <c r="D23" s="29" t="s">
-        <v>138</v>
+        <v>105</v>
       </c>
       <c r="E23" s="28" t="s">
-        <v>255</v>
+        <v>222</v>
       </c>
       <c r="F23" s="28" t="s">
-        <v>256</v>
+        <v>223</v>
       </c>
       <c r="G23" s="27" t="s">
-        <v>257</v>
+        <v>224</v>
       </c>
       <c r="H23" s="31" t="s">
-        <v>133</v>
+        <v>100</v>
       </c>
       <c r="I23" s="32"/>
       <c r="J23" s="16"/>
@@ -4650,28 +3906,28 @@
     </row>
     <row r="24" spans="1:25" ht="135.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="26" t="s">
-        <v>258</v>
+        <v>225</v>
       </c>
       <c r="B24" s="27" t="s">
-        <v>259</v>
+        <v>226</v>
       </c>
       <c r="C24" s="27" t="s">
-        <v>260</v>
+        <v>227</v>
       </c>
       <c r="D24" s="29" t="s">
-        <v>138</v>
+        <v>105</v>
       </c>
       <c r="E24" s="28" t="s">
-        <v>261</v>
+        <v>228</v>
       </c>
       <c r="F24" s="28" t="s">
-        <v>262</v>
+        <v>229</v>
       </c>
       <c r="G24" s="27" t="s">
-        <v>263</v>
+        <v>230</v>
       </c>
       <c r="H24" s="31" t="s">
-        <v>133</v>
+        <v>100</v>
       </c>
       <c r="I24" s="32"/>
       <c r="J24" s="16"/>
@@ -4693,28 +3949,28 @@
     </row>
     <row r="25" spans="1:25" ht="130.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="26" t="s">
-        <v>264</v>
+        <v>231</v>
       </c>
       <c r="B25" s="27" t="s">
-        <v>265</v>
+        <v>232</v>
       </c>
       <c r="C25" s="27" t="s">
-        <v>266</v>
+        <v>233</v>
       </c>
       <c r="D25" s="29" t="s">
-        <v>138</v>
+        <v>105</v>
       </c>
       <c r="E25" s="28" t="s">
-        <v>267</v>
+        <v>234</v>
       </c>
       <c r="F25" s="28" t="s">
-        <v>268</v>
+        <v>235</v>
       </c>
       <c r="G25" s="28" t="s">
-        <v>269</v>
+        <v>236</v>
       </c>
       <c r="H25" s="32" t="s">
-        <v>133</v>
+        <v>100</v>
       </c>
       <c r="I25" s="32"/>
       <c r="J25" s="16"/>
@@ -4736,28 +3992,28 @@
     </row>
     <row r="26" spans="1:25" ht="164.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="26" t="s">
-        <v>270</v>
+        <v>237</v>
       </c>
       <c r="B26" s="27" t="s">
-        <v>271</v>
+        <v>238</v>
       </c>
       <c r="C26" s="27" t="s">
-        <v>272</v>
+        <v>239</v>
       </c>
       <c r="D26" s="29" t="s">
-        <v>138</v>
+        <v>105</v>
       </c>
       <c r="E26" s="28" t="s">
-        <v>273</v>
+        <v>240</v>
       </c>
       <c r="F26" s="28" t="s">
-        <v>274</v>
+        <v>241</v>
       </c>
       <c r="G26" s="28" t="s">
-        <v>275</v>
+        <v>242</v>
       </c>
       <c r="H26" s="32" t="s">
-        <v>133</v>
+        <v>100</v>
       </c>
       <c r="I26" s="32"/>
       <c r="J26" s="16"/>
@@ -4779,28 +4035,28 @@
     </row>
     <row r="27" spans="1:25" ht="180.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="26" t="s">
-        <v>276</v>
+        <v>243</v>
       </c>
       <c r="B27" s="27" t="s">
-        <v>277</v>
+        <v>244</v>
       </c>
       <c r="C27" s="27" t="s">
-        <v>278</v>
+        <v>245</v>
       </c>
       <c r="D27" s="29" t="s">
-        <v>138</v>
+        <v>105</v>
       </c>
       <c r="E27" s="28" t="s">
-        <v>279</v>
+        <v>246</v>
       </c>
       <c r="F27" s="28" t="s">
-        <v>280</v>
+        <v>247</v>
       </c>
       <c r="G27" s="28" t="s">
-        <v>281</v>
+        <v>248</v>
       </c>
       <c r="H27" s="32" t="s">
-        <v>133</v>
+        <v>100</v>
       </c>
       <c r="I27" s="32"/>
       <c r="J27" s="16"/>
@@ -4822,28 +4078,28 @@
     </row>
     <row r="28" spans="1:25" ht="139.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="26" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="B28" s="27" t="s">
-        <v>283</v>
+        <v>250</v>
       </c>
       <c r="C28" s="27" t="s">
-        <v>284</v>
+        <v>251</v>
       </c>
       <c r="D28" s="29" t="s">
-        <v>138</v>
+        <v>105</v>
       </c>
       <c r="E28" s="28" t="s">
-        <v>285</v>
+        <v>252</v>
       </c>
       <c r="F28" s="28" t="s">
-        <v>286</v>
+        <v>253</v>
       </c>
       <c r="G28" s="28" t="s">
-        <v>287</v>
+        <v>254</v>
       </c>
       <c r="H28" s="32" t="s">
-        <v>133</v>
+        <v>100</v>
       </c>
       <c r="I28" s="32"/>
       <c r="J28" s="16"/>
@@ -4865,28 +4121,28 @@
     </row>
     <row r="29" spans="1:25" ht="169.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="26" t="s">
-        <v>288</v>
+        <v>255</v>
       </c>
       <c r="B29" s="27" t="s">
-        <v>289</v>
+        <v>256</v>
       </c>
       <c r="C29" s="27" t="s">
-        <v>290</v>
+        <v>257</v>
       </c>
       <c r="D29" s="29" t="s">
-        <v>138</v>
+        <v>105</v>
       </c>
       <c r="E29" s="28" t="s">
-        <v>291</v>
+        <v>258</v>
       </c>
       <c r="F29" s="28" t="s">
-        <v>292</v>
+        <v>259</v>
       </c>
       <c r="G29" s="28" t="s">
-        <v>293</v>
+        <v>260</v>
       </c>
       <c r="H29" s="32" t="s">
-        <v>133</v>
+        <v>100</v>
       </c>
       <c r="I29" s="32"/>
       <c r="J29" s="16"/>
@@ -4908,28 +4164,28 @@
     </row>
     <row r="30" spans="1:25" ht="240.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="26" t="s">
-        <v>294</v>
+        <v>261</v>
       </c>
       <c r="B30" s="27" t="s">
-        <v>295</v>
+        <v>262</v>
       </c>
       <c r="C30" s="27" t="s">
-        <v>296</v>
+        <v>263</v>
       </c>
       <c r="D30" s="29" t="s">
-        <v>138</v>
+        <v>105</v>
       </c>
       <c r="E30" s="28" t="s">
-        <v>297</v>
+        <v>264</v>
       </c>
       <c r="F30" s="28" t="s">
-        <v>298</v>
+        <v>265</v>
       </c>
       <c r="G30" s="28" t="s">
-        <v>299</v>
+        <v>266</v>
       </c>
       <c r="H30" s="32" t="s">
-        <v>133</v>
+        <v>100</v>
       </c>
       <c r="I30" s="32"/>
       <c r="J30" s="16"/>
@@ -4951,28 +4207,28 @@
     </row>
     <row r="31" spans="1:25" ht="292.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="26" t="s">
-        <v>300</v>
+        <v>267</v>
       </c>
       <c r="B31" s="27" t="s">
-        <v>301</v>
+        <v>268</v>
       </c>
       <c r="C31" s="27" t="s">
-        <v>302</v>
+        <v>269</v>
       </c>
       <c r="D31" s="29" t="s">
-        <v>138</v>
+        <v>105</v>
       </c>
       <c r="E31" s="28" t="s">
-        <v>303</v>
+        <v>270</v>
       </c>
       <c r="F31" s="28" t="s">
-        <v>304</v>
+        <v>271</v>
       </c>
       <c r="G31" s="28" t="s">
-        <v>305</v>
+        <v>272</v>
       </c>
       <c r="H31" s="32" t="s">
-        <v>133</v>
+        <v>100</v>
       </c>
       <c r="I31" s="32"/>
       <c r="J31" s="16"/>
@@ -4994,28 +4250,28 @@
     </row>
     <row r="32" spans="1:25" ht="118.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="26" t="s">
-        <v>306</v>
+        <v>273</v>
       </c>
       <c r="B32" s="27" t="s">
-        <v>307</v>
+        <v>274</v>
       </c>
       <c r="C32" s="27" t="s">
-        <v>308</v>
+        <v>275</v>
       </c>
       <c r="D32" s="29" t="s">
-        <v>138</v>
+        <v>105</v>
       </c>
       <c r="E32" s="28" t="s">
-        <v>309</v>
+        <v>276</v>
       </c>
       <c r="F32" s="28" t="s">
-        <v>310</v>
+        <v>277</v>
       </c>
       <c r="G32" s="28" t="s">
-        <v>311</v>
+        <v>278</v>
       </c>
       <c r="H32" s="32" t="s">
-        <v>133</v>
+        <v>100</v>
       </c>
       <c r="I32" s="32"/>
       <c r="J32" s="16"/>
@@ -5037,28 +4293,28 @@
     </row>
     <row r="33" spans="1:26" ht="129.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="26" t="s">
-        <v>312</v>
+        <v>279</v>
       </c>
       <c r="B33" s="27" t="s">
-        <v>313</v>
+        <v>280</v>
       </c>
       <c r="C33" s="27" t="s">
-        <v>314</v>
+        <v>281</v>
       </c>
       <c r="D33" s="29" t="s">
-        <v>138</v>
+        <v>105</v>
       </c>
       <c r="E33" s="28" t="s">
-        <v>315</v>
+        <v>282</v>
       </c>
       <c r="F33" s="28" t="s">
-        <v>316</v>
+        <v>283</v>
       </c>
       <c r="G33" s="28" t="s">
-        <v>317</v>
+        <v>284</v>
       </c>
       <c r="H33" s="32" t="s">
-        <v>133</v>
+        <v>100</v>
       </c>
       <c r="I33" s="32"/>
       <c r="J33" s="16"/>
@@ -5080,28 +4336,28 @@
     </row>
     <row r="34" spans="1:26" ht="120" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="26" t="s">
-        <v>318</v>
+        <v>285</v>
       </c>
       <c r="B34" s="27" t="s">
-        <v>319</v>
+        <v>286</v>
       </c>
       <c r="C34" s="27" t="s">
-        <v>320</v>
+        <v>287</v>
       </c>
       <c r="D34" s="29" t="s">
-        <v>138</v>
+        <v>105</v>
       </c>
       <c r="E34" s="28" t="s">
-        <v>321</v>
+        <v>288</v>
       </c>
       <c r="F34" s="28" t="s">
-        <v>322</v>
+        <v>289</v>
       </c>
       <c r="G34" s="28" t="s">
-        <v>323</v>
+        <v>290</v>
       </c>
       <c r="H34" s="32" t="s">
-        <v>133</v>
+        <v>100</v>
       </c>
       <c r="I34" s="32"/>
       <c r="J34" s="16"/>
@@ -5123,28 +4379,28 @@
     </row>
     <row r="35" spans="1:26" ht="129" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="27" t="s">
-        <v>324</v>
+        <v>291</v>
       </c>
       <c r="B35" s="27" t="s">
-        <v>325</v>
+        <v>292</v>
       </c>
       <c r="C35" s="28" t="s">
-        <v>326</v>
+        <v>293</v>
       </c>
       <c r="D35" s="29" t="s">
-        <v>138</v>
+        <v>105</v>
       </c>
       <c r="E35" s="28" t="s">
-        <v>327</v>
+        <v>294</v>
       </c>
       <c r="F35" s="28" t="s">
-        <v>328</v>
+        <v>295</v>
       </c>
       <c r="G35" s="28" t="s">
-        <v>329</v>
+        <v>296</v>
       </c>
       <c r="H35" s="31" t="s">
-        <v>133</v>
+        <v>100</v>
       </c>
       <c r="I35" s="32"/>
       <c r="J35" s="16"/>
@@ -5166,28 +4422,28 @@
     </row>
     <row r="36" spans="1:26" ht="158.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="27" t="s">
-        <v>330</v>
+        <v>297</v>
       </c>
       <c r="B36" s="27" t="s">
-        <v>331</v>
+        <v>298</v>
       </c>
       <c r="C36" s="28" t="s">
-        <v>332</v>
+        <v>299</v>
       </c>
       <c r="D36" s="29" t="s">
-        <v>138</v>
+        <v>105</v>
       </c>
       <c r="E36" s="28" t="s">
-        <v>333</v>
+        <v>300</v>
       </c>
       <c r="F36" s="28" t="s">
-        <v>334</v>
+        <v>301</v>
       </c>
       <c r="G36" s="28" t="s">
-        <v>335</v>
+        <v>302</v>
       </c>
       <c r="H36" s="31" t="s">
-        <v>133</v>
+        <v>100</v>
       </c>
       <c r="I36" s="32"/>
       <c r="J36" s="16"/>
@@ -5209,28 +4465,28 @@
     </row>
     <row r="37" spans="1:26" ht="108.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="27" t="s">
-        <v>336</v>
+        <v>303</v>
       </c>
       <c r="B37" s="27" t="s">
-        <v>337</v>
+        <v>304</v>
       </c>
       <c r="C37" s="27" t="s">
-        <v>338</v>
+        <v>305</v>
       </c>
       <c r="D37" s="29" t="s">
-        <v>138</v>
+        <v>105</v>
       </c>
       <c r="E37" s="28" t="s">
-        <v>339</v>
+        <v>306</v>
       </c>
       <c r="F37" s="28" t="s">
-        <v>340</v>
+        <v>307</v>
       </c>
       <c r="G37" s="27" t="s">
-        <v>341</v>
+        <v>308</v>
       </c>
       <c r="H37" s="31" t="s">
-        <v>133</v>
+        <v>100</v>
       </c>
       <c r="I37" s="32"/>
       <c r="J37" s="16"/>
@@ -5252,28 +4508,28 @@
     </row>
     <row r="38" spans="1:26" ht="115.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="27" t="s">
-        <v>342</v>
+        <v>309</v>
       </c>
       <c r="B38" s="27" t="s">
-        <v>343</v>
+        <v>310</v>
       </c>
       <c r="C38" s="28" t="s">
-        <v>344</v>
+        <v>311</v>
       </c>
       <c r="D38" s="29" t="s">
-        <v>138</v>
+        <v>105</v>
       </c>
       <c r="E38" s="28" t="s">
-        <v>345</v>
+        <v>312</v>
       </c>
       <c r="F38" s="28" t="s">
-        <v>346</v>
+        <v>313</v>
       </c>
       <c r="G38" s="27" t="s">
-        <v>347</v>
+        <v>314</v>
       </c>
       <c r="H38" s="31" t="s">
-        <v>133</v>
+        <v>100</v>
       </c>
       <c r="I38" s="32"/>
       <c r="J38" s="16"/>
@@ -5295,28 +4551,28 @@
     </row>
     <row r="39" spans="1:26" ht="98.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="27" t="s">
-        <v>348</v>
+        <v>315</v>
       </c>
       <c r="B39" s="27" t="s">
-        <v>349</v>
+        <v>316</v>
       </c>
       <c r="C39" s="27" t="s">
-        <v>350</v>
+        <v>317</v>
       </c>
       <c r="D39" s="29" t="s">
-        <v>138</v>
+        <v>105</v>
       </c>
       <c r="E39" s="27" t="s">
-        <v>351</v>
+        <v>318</v>
       </c>
       <c r="F39" s="27" t="s">
-        <v>352</v>
+        <v>319</v>
       </c>
       <c r="G39" s="27" t="s">
-        <v>353</v>
+        <v>320</v>
       </c>
       <c r="H39" s="31" t="s">
-        <v>133</v>
+        <v>100</v>
       </c>
       <c r="I39" s="32"/>
       <c r="J39" s="16"/>
